--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Documents/GitHub/openclassroom/P4_lachouetteagence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A12196A-1977-C34D-B3DF-C2A3DCACFCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1DDFC5-FF41-B54F-8BB6-A35EE205EC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="27860" windowHeight="16380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="500" windowWidth="25860" windowHeight="10020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Catégorie</t>
   </si>
@@ -108,9 +108,6 @@
     <t>modification du titre de la page</t>
   </si>
   <si>
-    <t>metre un texte accricheur</t>
-  </si>
-  <si>
     <t>modifier le title</t>
   </si>
   <si>
@@ -124,6 +121,39 @@
   </si>
   <si>
     <t>compressé le texte pour un meilleure chargement</t>
+  </si>
+  <si>
+    <t>metre un texte accrocheur</t>
+  </si>
+  <si>
+    <t>page 2</t>
+  </si>
+  <si>
+    <t>meilleure disposition des éléments</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>l'image dépasse en version mobile</t>
+  </si>
+  <si>
+    <t>justification</t>
+  </si>
+  <si>
+    <t>bug affichage ligne (image title 2)</t>
+  </si>
+  <si>
+    <t>disposition éléments</t>
+  </si>
+  <si>
+    <t>z-index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ne dois pas être utilisé </t>
+  </si>
+  <si>
+    <t>dev.mozila</t>
   </si>
 </sst>
 </file>
@@ -197,14 +227,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -421,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -522,16 +557,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>10</v>
@@ -563,46 +598,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="4"/>
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1584,13 +1670,16 @@
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{FDF56EB5-4AD8-C547-AF6D-30373B05967A}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{02728508-8BB6-1846-9067-242DABB07D90}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{02728508-8BB6-1846-9067-242DABB07D90}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{E01FA1A5-1E74-DC4D-AE7F-36E445E7C66F}"/>
     <hyperlink ref="F7" r:id="rId4" xr:uid="{DA5CA000-665A-A04D-8E6F-6838799AA460}"/>
     <hyperlink ref="F4" r:id="rId5" xr:uid="{9135B3B0-D7F7-C345-B3CA-AF7F10954260}"/>
+    <hyperlink ref="F15" r:id="rId6" xr:uid="{43B5338F-FE04-CE4B-A688-1BCD7DFF7AB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Documents/GitHub/openclassroom/P4_lachouetteagence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1DDFC5-FF41-B54F-8BB6-A35EE205EC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB54183A-68F7-7F4E-9739-693726161555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="500" windowWidth="25860" windowHeight="10020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1480" windowWidth="25860" windowHeight="10020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Catégorie</t>
   </si>
@@ -459,7 +467,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -640,45 +648,48 @@
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="4"/>
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -1675,7 +1686,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{FDF56EB5-4AD8-C547-AF6D-30373B05967A}"/>
-    <hyperlink ref="F12" r:id="rId2" xr:uid="{02728508-8BB6-1846-9067-242DABB07D90}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{02728508-8BB6-1846-9067-242DABB07D90}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{E01FA1A5-1E74-DC4D-AE7F-36E445E7C66F}"/>
     <hyperlink ref="F7" r:id="rId4" xr:uid="{DA5CA000-665A-A04D-8E6F-6838799AA460}"/>
     <hyperlink ref="F4" r:id="rId5" xr:uid="{9135B3B0-D7F7-C345-B3CA-AF7F10954260}"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Documents/GitHub/openclassroom/P4_lachouetteagence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB54183A-68F7-7F4E-9739-693726161555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394AED54-4620-2346-9090-E55BB643EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1480" windowWidth="25860" windowHeight="10020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="2480" windowWidth="25420" windowHeight="10500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Catégorie</t>
   </si>
@@ -134,24 +134,9 @@
     <t>metre un texte accrocheur</t>
   </si>
   <si>
-    <t>page 2</t>
-  </si>
-  <si>
     <t>meilleure disposition des éléments</t>
   </si>
   <si>
-    <t>Citation</t>
-  </si>
-  <si>
-    <t>l'image dépasse en version mobile</t>
-  </si>
-  <si>
-    <t>justification</t>
-  </si>
-  <si>
-    <t>bug affichage ligne (image title 2)</t>
-  </si>
-  <si>
     <t>disposition éléments</t>
   </si>
   <si>
@@ -162,13 +147,43 @@
   </si>
   <si>
     <t>dev.mozila</t>
+  </si>
+  <si>
+    <t>liens vers page 2</t>
+  </si>
+  <si>
+    <t>texte trop petit pour version mobile</t>
+  </si>
+  <si>
+    <t>texte en 12px minimum</t>
+  </si>
+  <si>
+    <t>modifier la taille</t>
+  </si>
+  <si>
+    <t>Des ressources bloque la premiere visualisation de la page</t>
+  </si>
+  <si>
+    <t>positionnement</t>
+  </si>
+  <si>
+    <t>classement élément d'en-tête</t>
+  </si>
+  <si>
+    <t>mauvais classement</t>
+  </si>
+  <si>
+    <t>classement séquentiel par ordre décroissant</t>
+  </si>
+  <si>
+    <t>modifier le classement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,9 +204,15 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -199,9 +220,10 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +234,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -233,19 +261,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,17 +498,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="4" width="40.7109375" customWidth="1"/>
     <col min="5" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
@@ -521,186 +555,239 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F6" s="4"/>
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1683,14 +1770,17 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{FDF56EB5-4AD8-C547-AF6D-30373B05967A}"/>
-    <hyperlink ref="F13" r:id="rId2" xr:uid="{02728508-8BB6-1846-9067-242DABB07D90}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{02728508-8BB6-1846-9067-242DABB07D90}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{E01FA1A5-1E74-DC4D-AE7F-36E445E7C66F}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{DA5CA000-665A-A04D-8E6F-6838799AA460}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{DA5CA000-665A-A04D-8E6F-6838799AA460}"/>
     <hyperlink ref="F4" r:id="rId5" xr:uid="{9135B3B0-D7F7-C345-B3CA-AF7F10954260}"/>
-    <hyperlink ref="F15" r:id="rId6" xr:uid="{43B5338F-FE04-CE4B-A688-1BCD7DFF7AB9}"/>
+    <hyperlink ref="F16" r:id="rId6" xr:uid="{43B5338F-FE04-CE4B-A688-1BCD7DFF7AB9}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{5C39AAAB-89BE-F54A-B216-B1A041F7ADEE}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{A5CF8398-3F72-7342-B67E-DA1347D0B1CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Documents/GitHub/openclassroom/P4_lachouetteagence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394AED54-4620-2346-9090-E55BB643EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08FA830-3434-424E-9A31-0749EFD94338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2480" windowWidth="25420" windowHeight="10500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="4660" windowWidth="25420" windowHeight="10500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -685,7 +685,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Documents/GitHub/openclassroom/P4_lachouetteagence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08FA830-3434-424E-9A31-0749EFD94338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D745774-85E3-604E-ABF6-257A10ACDC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="4660" windowWidth="25420" windowHeight="10500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -773,7 +773,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Documents/GitHub/openclassroom/P4_lachouetteagence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D745774-85E3-604E-ABF6-257A10ACDC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B76592-6649-3843-B440-A892A9B545EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="4660" windowWidth="25420" windowHeight="10500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Catégorie</t>
   </si>
@@ -80,9 +80,6 @@
     <t>meta description</t>
   </si>
   <si>
-    <t>modification de la meta pour mobile</t>
-  </si>
-  <si>
     <t>formater en WebP</t>
   </si>
   <si>
@@ -131,21 +128,12 @@
     <t>compressé le texte pour un meilleure chargement</t>
   </si>
   <si>
-    <t>metre un texte accrocheur</t>
-  </si>
-  <si>
-    <t>meilleure disposition des éléments</t>
-  </si>
-  <si>
     <t>disposition éléments</t>
   </si>
   <si>
     <t>z-index</t>
   </si>
   <si>
-    <t xml:space="preserve">ne dois pas être utilisé </t>
-  </si>
-  <si>
     <t>dev.mozila</t>
   </si>
   <si>
@@ -177,6 +165,33 @@
   </si>
   <si>
     <t>modifier le classement</t>
+  </si>
+  <si>
+    <t>z-index utilisé dans le css</t>
+  </si>
+  <si>
+    <t>Ne pas utilisé z-index</t>
+  </si>
+  <si>
+    <t>Supprimé z-index</t>
+  </si>
+  <si>
+    <t>mêtre en forme la page</t>
+  </si>
+  <si>
+    <t>modifier disposition</t>
+  </si>
+  <si>
+    <t>Résumer le service de la page/présentation entreprise</t>
+  </si>
+  <si>
+    <t>Metre un texte accrocheur</t>
+  </si>
+  <si>
+    <t>Modification du titre de la page</t>
+  </si>
+  <si>
+    <t>La meta descripton et vide</t>
   </si>
 </sst>
 </file>
@@ -500,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -509,8 +524,9 @@
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="6" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -556,7 +572,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -565,30 +581,30 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
+      <c r="A3" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
@@ -596,19 +612,19 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>10</v>
@@ -616,37 +632,37 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -669,16 +685,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>10</v>
@@ -689,15 +705,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -705,16 +723,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
@@ -744,11 +762,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
@@ -759,16 +779,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -777,15 +797,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F16" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1779,8 +1803,8 @@
     <hyperlink ref="F9" r:id="rId4" xr:uid="{DA5CA000-665A-A04D-8E6F-6838799AA460}"/>
     <hyperlink ref="F4" r:id="rId5" xr:uid="{9135B3B0-D7F7-C345-B3CA-AF7F10954260}"/>
     <hyperlink ref="F16" r:id="rId6" xr:uid="{43B5338F-FE04-CE4B-A688-1BCD7DFF7AB9}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{5C39AAAB-89BE-F54A-B216-B1A041F7ADEE}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{A5CF8398-3F72-7342-B67E-DA1347D0B1CE}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{A5CF8398-3F72-7342-B67E-DA1347D0B1CE}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{D7FB01A5-EDEC-3C45-8BBC-7F159712EA02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
